--- a/spreadsheet/macrofree/sql_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/sql_checklist.pt.xlsx
@@ -1369,7 +1369,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Coloque tempdb na unidade SSD efêmera local (padrão D:\) para a maioria das cargas de trabalho do SQL Server que não fazem parte da FCI (Instância de Cluster de Failover) depois de escolher o tamanho ideal da VM.</t>
+          <t>Coloque tempdb na unidade SSD efêmera local (D:\) para a maioria das cargas de trabalho do SQL Server que não fazem parte da FCI (Instância de Cluster de Failover) depois de escolher o tamanho ideal da VM.</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>Opção preferencial ao implantar um Grupo de Disponibilidade. A solução recomendada é usar várias sub-redes ao implantar grupos de disponibilidade Always on.</t>
+          <t>Opção preferencial ao implantar um Grupo de Disponibilidade. A solução recomendada é usar várias sub-redes ao implantar Grupos de Disponibilidade Sempre Ativos.</t>
         </is>
       </c>
       <c r="E21" s="21" t="inlineStr">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Registre-se com a Extensão do Agente IaaS do SQL para desbloquear uma série de benefícios de recursos.</t>
+          <t>Registre-se com a Extensão do SQL IaaS Agent para desbloquear uma série de benefícios de recursos.</t>
         </is>
       </c>
       <c r="D37" s="21" t="inlineStr">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="D44" s="21" t="inlineStr">
         <is>
-          <t>O recurso de recomendação de SKU pode avaliar o desempenho e as características de utilização do SQL Server de origem para recomendar uma Instância Gerenciada SQL do Azure de tamanho correto para ajudar em sua jornada de migração.</t>
+          <t>O recurso de recomendação de SKU pode avaliar o desempenho de origem e as características de utilização do SQL Server para recomendar uma Instância Gerenciada SQL do Azure de tamanho correto para ajudar em sua jornada de migração.</t>
         </is>
       </c>
       <c r="E44" s="21" t="inlineStr">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="D53" s="21" t="inlineStr">
         <is>
-          <t>Depois de verificar se os dados são os mesmos na origem e no destino, você pode cortar da origem para o ambiente de destino. É importante planejar o processo de substituição com as equipes de negócios/aplicativos para garantir que a interrupção mínima durante a transição não afete a continuidade dos negócios.</t>
+          <t>Depois de verificar se os dados são os mesmos na origem e no destino, você pode cortar da origem para o ambiente de destino. É importante planejar o processo de transição com as equipes de negócios/aplicativos para garantir que a interrupção mínima durante a transição não afete a continuidade dos negócios.</t>
         </is>
       </c>
       <c r="E53" s="21" t="inlineStr">
